--- a/reports/resnet18_23_no_MMTM/prediction/3/prediction_train_3.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/3/prediction_train_3.xlsx
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2519,7 +2519,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
